--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Npy-Fap.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Npy-Fap.xlsx
@@ -531,16 +531,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.697137</v>
+        <v>1.319712</v>
       </c>
       <c r="H2">
-        <v>5.091411</v>
+        <v>3.959136</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.889345666666667</v>
+        <v>3.046487666666666</v>
       </c>
       <c r="N2">
-        <v>8.668037000000002</v>
+        <v>9.139462999999999</v>
       </c>
       <c r="O2">
-        <v>0.01698472658704232</v>
+        <v>0.01743556347089316</v>
       </c>
       <c r="P2">
-        <v>0.01698472658704232</v>
+        <v>0.01743556347089316</v>
       </c>
       <c r="Q2">
-        <v>4.903615436689667</v>
+        <v>4.020486331551999</v>
       </c>
       <c r="R2">
-        <v>44.13253893020701</v>
+        <v>36.18437698396799</v>
       </c>
       <c r="S2">
-        <v>0.01698472658704232</v>
+        <v>0.01743556347089316</v>
       </c>
       <c r="T2">
-        <v>0.01698472658704232</v>
+        <v>0.01743556347089316</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.697137</v>
+        <v>1.319712</v>
       </c>
       <c r="H3">
-        <v>5.091411</v>
+        <v>3.959136</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>154.6652373333334</v>
+        <v>154.6652373333333</v>
       </c>
       <c r="N3">
         <v>463.995712</v>
       </c>
       <c r="O3">
-        <v>0.9091839716281818</v>
+        <v>0.8851752763590445</v>
       </c>
       <c r="P3">
-        <v>0.9091839716281817</v>
+        <v>0.8851752763590445</v>
       </c>
       <c r="Q3">
-        <v>262.4880968921814</v>
+        <v>204.113569691648</v>
       </c>
       <c r="R3">
-        <v>2362.392872029632</v>
+        <v>1837.022127224832</v>
       </c>
       <c r="S3">
-        <v>0.9091839716281818</v>
+        <v>0.8851752763590445</v>
       </c>
       <c r="T3">
-        <v>0.9091839716281817</v>
+        <v>0.8851752763590445</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +655,16 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.697137</v>
+        <v>1.319712</v>
       </c>
       <c r="H4">
-        <v>5.091411</v>
+        <v>3.959136</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.67951133333333</v>
+        <v>15.82721166666667</v>
       </c>
       <c r="N4">
-        <v>35.038534</v>
+        <v>47.481635</v>
       </c>
       <c r="O4">
-        <v>0.06865682737634669</v>
+        <v>0.09058180559889371</v>
       </c>
       <c r="P4">
-        <v>0.06865682737634669</v>
+        <v>0.09058180559889373</v>
       </c>
       <c r="Q4">
-        <v>19.82173082571933</v>
+        <v>20.88736116304</v>
       </c>
       <c r="R4">
-        <v>178.395577431474</v>
+        <v>187.98625046736</v>
       </c>
       <c r="S4">
-        <v>0.06865682737634669</v>
+        <v>0.09058180559889371</v>
       </c>
       <c r="T4">
-        <v>0.06865682737634669</v>
+        <v>0.09058180559889373</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,16 +717,16 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.697137</v>
+        <v>1.319712</v>
       </c>
       <c r="H5">
-        <v>5.091411</v>
+        <v>3.959136</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.8802523333333334</v>
+        <v>1.189438</v>
       </c>
       <c r="N5">
-        <v>2.640757</v>
+        <v>3.568314</v>
       </c>
       <c r="O5">
-        <v>0.005174474408429279</v>
+        <v>0.006807354571168639</v>
       </c>
       <c r="P5">
-        <v>0.005174474408429279</v>
+        <v>0.00680735457116864</v>
       </c>
       <c r="Q5">
-        <v>1.493908804236333</v>
+        <v>1.569715601856</v>
       </c>
       <c r="R5">
-        <v>13.445179238127</v>
+        <v>14.127440416704</v>
       </c>
       <c r="S5">
-        <v>0.005174474408429279</v>
+        <v>0.006807354571168639</v>
       </c>
       <c r="T5">
-        <v>0.005174474408429279</v>
+        <v>0.00680735457116864</v>
       </c>
     </row>
   </sheetData>
